--- a/public/template/laporan/Laporan Penerimaan Kayu Bulat.xlsx
+++ b/public/template/laporan/Laporan Penerimaan Kayu Bulat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\PKL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\PKL\PKL_DLH_uji2\public\template\laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4FD37D-C8DE-4E58-9848-536DFAEA4BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77564C8A-63AB-4C0C-90E6-552EE4C86794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F52AC168-CB8D-44F1-87BB-1F52C17B9D43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F52AC168-CB8D-44F1-87BB-1F52C17B9D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>No</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Mindi</t>
+  </si>
+  <si>
+    <t>Tanggal (Hari/Bulan/Tahun)</t>
   </si>
 </sst>
 </file>
@@ -549,23 +552,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>595923</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1607377</xdr:colOff>
+      <xdr:colOff>1599726</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>98694</xdr:rowOff>
+      <xdr:rowOff>163958</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+        <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27358F4A-2ECF-41E4-AA05-4A9D71690D39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE785B5-0A5C-4C4B-AB83-B18196F06DE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -573,8 +576,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="622300" y="774700"/>
-          <a:ext cx="3283777" cy="1203594"/>
+          <a:off x="595923" y="644769"/>
+          <a:ext cx="3250726" cy="1404651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -702,6 +705,21 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t> menggunakan "," contoh 2,000 m3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. Tanggal Ditulis dengan format (HH/BB/TTTT) contoh 1 maret 2025 ditulis sebagai 1/3/2025</a:t>
           </a:r>
           <a:endParaRPr lang="en-ID" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -761,8 +779,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1607377</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>98694</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -777,8 +795,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="622300" y="774700"/>
-          <a:ext cx="3283777" cy="1203594"/>
+          <a:off x="605928" y="789542"/>
+          <a:ext cx="3250726" cy="1404651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -906,6 +924,21 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t> menggunakan "," contoh 2,000 m3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. Tanggal Ditulis dengan format (HH/BB/TTTT) contoh 1 maret 2025 ditulis sebagai 1/3/2025</a:t>
           </a:r>
           <a:endParaRPr lang="en-ID" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -1286,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489846A1-134B-44A4-9C23-72D55F60D54E}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1513,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508088B2-8950-4D76-A8A0-1794C4E98DDE}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="83" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A3" zoomScale="83" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1582,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>2</v>
